--- a/grade_nine.xlsx
+++ b/grade_nine.xlsx
@@ -74,9 +74,6 @@
     <t>NDgrvBOJ2psb3CbMDU8X</t>
   </si>
   <si>
-    <t>tZ5emnlhuZEcVW6QHKpU</t>
-  </si>
-  <si>
     <t>zVjxoWR2uEo0dBtZ8iAq</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>UqizeJmDCvfcLScH1lo3</t>
   </si>
   <si>
-    <t>fjIBtOXSylbE8xXjCOPo</t>
-  </si>
-  <si>
     <t>kBwl9TTA30rQUWzZgr1E</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>qVoFDp5C6Ar337nmRuiX</t>
   </si>
   <si>
-    <t>2mBXNBGzdTklkj7k8kJE</t>
-  </si>
-  <si>
     <t>PoqYtwsFkRmONH0THY7a</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>WMHeyscfnGrF0xI1e6EX</t>
   </si>
   <si>
-    <t>B9lmomdWmRaozJ8265ae</t>
-  </si>
-  <si>
     <t>J6FDp6D7GEMB03oVxYoD</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>eUshagaqKXm9RG98GZnn</t>
   </si>
   <si>
-    <t>cC9ikMwDT3iUrkHPOtzB</t>
-  </si>
-  <si>
     <t>xTHoNFLBlbVrUteYwhz1</t>
   </si>
   <si>
@@ -143,9 +128,6 @@
     <t>5KwB7UmG9TRqiH2Z1fWR</t>
   </si>
   <si>
-    <t>qUll6SLySvxfd8reZh7x</t>
-  </si>
-  <si>
     <t>Re2EgJ41Ska8sqYVRR8j</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
     <t>9i3NSEPItcABpLiyidDk</t>
   </si>
   <si>
-    <t>k29PTjGNWtvYIm0mYuMq</t>
-  </si>
-  <si>
     <t>NiDpSp9h2NgZ0BcxDJE5</t>
   </si>
   <si>
@@ -173,7 +152,28 @@
     <t>IyIzBdW8xsNg3i2fxqSM</t>
   </si>
   <si>
-    <t>czAZzyydUKEoSZ6bPpGL</t>
+    <t>0DKoqD2pKiDU5LniiSdz</t>
+  </si>
+  <si>
+    <t>WsiJrcsuBgOwJoji2lx3</t>
+  </si>
+  <si>
+    <t>44qXU7UPPjExGS7x1Wpg</t>
+  </si>
+  <si>
+    <t>GlAcMvhEhyOA7GMV64K1</t>
+  </si>
+  <si>
+    <t>82it5OgUXmN9955YfAw0</t>
+  </si>
+  <si>
+    <t>mcIUEEaoTvKKrD88MXDJ</t>
+  </si>
+  <si>
+    <t>RSYlMwCHc6qAHUHbRERp</t>
+  </si>
+  <si>
+    <t>C5n7N4ywR1zCZc74ktyc</t>
   </si>
 </sst>
 </file>
@@ -571,13 +571,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,13 +591,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,13 +611,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -688,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,13 +748,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -768,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>

--- a/grade_nine.xlsx
+++ b/grade_nine.xlsx
@@ -65,18 +65,12 @@
     <t>HRAs16cHYH1OpOZcXV0x</t>
   </si>
   <si>
-    <t>ZG8OhO6kRlBGGYgeIlvd</t>
-  </si>
-  <si>
     <t>voJBTY4spdh5FMkzg3Lq</t>
   </si>
   <si>
     <t>NDgrvBOJ2psb3CbMDU8X</t>
   </si>
   <si>
-    <t>zVjxoWR2uEo0dBtZ8iAq</t>
-  </si>
-  <si>
     <t>iHrcLJV9Um2yeuYiXync</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>kBwl9TTA30rQUWzZgr1E</t>
   </si>
   <si>
-    <t>xY9NuYeAJ6lLipNxyn0h</t>
-  </si>
-  <si>
     <t>kO0qll2gxAFYYXuAJL8D</t>
   </si>
   <si>
@@ -98,18 +89,12 @@
     <t>PoqYtwsFkRmONH0THY7a</t>
   </si>
   <si>
-    <t>6yMnv2hJGpCPHT1LCNJ3</t>
-  </si>
-  <si>
     <t>H528CH3h7CYkVSpJA00g</t>
   </si>
   <si>
     <t>WMHeyscfnGrF0xI1e6EX</t>
   </si>
   <si>
-    <t>J6FDp6D7GEMB03oVxYoD</t>
-  </si>
-  <si>
     <t>dwIL8tvL4PiLQJsbYF5x</t>
   </si>
   <si>
@@ -119,9 +104,6 @@
     <t>xTHoNFLBlbVrUteYwhz1</t>
   </si>
   <si>
-    <t>h6W70jjIZZJgq3a3MOKp</t>
-  </si>
-  <si>
     <t>VsyED9LtNjTd9o1UyJGK</t>
   </si>
   <si>
@@ -131,9 +113,6 @@
     <t>Re2EgJ41Ska8sqYVRR8j</t>
   </si>
   <si>
-    <t>vEyzJH5WwzmQQRwZvN4W</t>
-  </si>
-  <si>
     <t>ZFJooWdEsMTPVBXCsp4i</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
     <t>NiDpSp9h2NgZ0BcxDJE5</t>
   </si>
   <si>
-    <t>Xr5H1OyZWAypRIi4NF20</t>
-  </si>
-  <si>
     <t>qTj869L9XMn1Qo0xt9mr</t>
   </si>
   <si>
@@ -174,6 +150,30 @@
   </si>
   <si>
     <t>C5n7N4ywR1zCZc74ktyc</t>
+  </si>
+  <si>
+    <t>K0meigYSUjKJVAITHJ7a</t>
+  </si>
+  <si>
+    <t>wLCEQ5VMXX8G0AD1beYm</t>
+  </si>
+  <si>
+    <t>qgp4IRO3NDUsyc2cVjR8</t>
+  </si>
+  <si>
+    <t>4UkJm53t4lerabUXM7Q4</t>
+  </si>
+  <si>
+    <t>61BMrbUIZeEfecDBJvjZ</t>
+  </si>
+  <si>
+    <t>KbNuHf5ikcHQRJs9iZXr</t>
+  </si>
+  <si>
+    <t>nqSDSqx2CMlja9fzamA8</t>
+  </si>
+  <si>
+    <t>urB0Je8OneUBNl0zl0Bf</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -688,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,16 +748,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>

--- a/grade_nine.xlsx
+++ b/grade_nine.xlsx
@@ -65,66 +65,42 @@
     <t>HRAs16cHYH1OpOZcXV0x</t>
   </si>
   <si>
-    <t>voJBTY4spdh5FMkzg3Lq</t>
-  </si>
-  <si>
     <t>NDgrvBOJ2psb3CbMDU8X</t>
   </si>
   <si>
-    <t>iHrcLJV9Um2yeuYiXync</t>
-  </si>
-  <si>
     <t>UqizeJmDCvfcLScH1lo3</t>
   </si>
   <si>
     <t>kBwl9TTA30rQUWzZgr1E</t>
   </si>
   <si>
-    <t>kO0qll2gxAFYYXuAJL8D</t>
-  </si>
-  <si>
     <t>qVoFDp5C6Ar337nmRuiX</t>
   </si>
   <si>
     <t>PoqYtwsFkRmONH0THY7a</t>
   </si>
   <si>
-    <t>H528CH3h7CYkVSpJA00g</t>
-  </si>
-  <si>
     <t>WMHeyscfnGrF0xI1e6EX</t>
   </si>
   <si>
-    <t>dwIL8tvL4PiLQJsbYF5x</t>
-  </si>
-  <si>
     <t>eUshagaqKXm9RG98GZnn</t>
   </si>
   <si>
     <t>xTHoNFLBlbVrUteYwhz1</t>
   </si>
   <si>
-    <t>VsyED9LtNjTd9o1UyJGK</t>
-  </si>
-  <si>
     <t>5KwB7UmG9TRqiH2Z1fWR</t>
   </si>
   <si>
     <t>Re2EgJ41Ska8sqYVRR8j</t>
   </si>
   <si>
-    <t>ZFJooWdEsMTPVBXCsp4i</t>
-  </si>
-  <si>
     <t>9i3NSEPItcABpLiyidDk</t>
   </si>
   <si>
     <t>NiDpSp9h2NgZ0BcxDJE5</t>
   </si>
   <si>
-    <t>qTj869L9XMn1Qo0xt9mr</t>
-  </si>
-  <si>
     <t>IyIzBdW8xsNg3i2fxqSM</t>
   </si>
   <si>
@@ -174,6 +150,30 @@
   </si>
   <si>
     <t>urB0Je8OneUBNl0zl0Bf</t>
+  </si>
+  <si>
+    <t>UMNpw6rfS2pmonOusb6e</t>
+  </si>
+  <si>
+    <t>ghfk30qKrgCNRBSKlCI6</t>
+  </si>
+  <si>
+    <t>fBYZuVBGUyS04DphfKX5</t>
+  </si>
+  <si>
+    <t>8ChZgJJQZjwBGQ8eTbt0</t>
+  </si>
+  <si>
+    <t>7ecmDZLun7BADuXpFgD4</t>
+  </si>
+  <si>
+    <t>juTbXWy1B7bfDcPBzxoU</t>
+  </si>
+  <si>
+    <t>3tII00GFHRtOlrvGdOJB</t>
+  </si>
+  <si>
+    <t>kZ90523POQNyAy9ozQxQ</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -688,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,16 +748,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>

--- a/grade_nine.xlsx
+++ b/grade_nine.xlsx
@@ -62,45 +62,27 @@
     <t>***************</t>
   </si>
   <si>
-    <t>HRAs16cHYH1OpOZcXV0x</t>
-  </si>
-  <si>
     <t>NDgrvBOJ2psb3CbMDU8X</t>
   </si>
   <si>
     <t>UqizeJmDCvfcLScH1lo3</t>
   </si>
   <si>
-    <t>kBwl9TTA30rQUWzZgr1E</t>
-  </si>
-  <si>
     <t>qVoFDp5C6Ar337nmRuiX</t>
   </si>
   <si>
-    <t>PoqYtwsFkRmONH0THY7a</t>
-  </si>
-  <si>
     <t>WMHeyscfnGrF0xI1e6EX</t>
   </si>
   <si>
     <t>eUshagaqKXm9RG98GZnn</t>
   </si>
   <si>
-    <t>xTHoNFLBlbVrUteYwhz1</t>
-  </si>
-  <si>
     <t>5KwB7UmG9TRqiH2Z1fWR</t>
   </si>
   <si>
-    <t>Re2EgJ41Ska8sqYVRR8j</t>
-  </si>
-  <si>
     <t>9i3NSEPItcABpLiyidDk</t>
   </si>
   <si>
-    <t>NiDpSp9h2NgZ0BcxDJE5</t>
-  </si>
-  <si>
     <t>IyIzBdW8xsNg3i2fxqSM</t>
   </si>
   <si>
@@ -174,6 +156,24 @@
   </si>
   <si>
     <t>kZ90523POQNyAy9ozQxQ</t>
+  </si>
+  <si>
+    <t>o8JQDqpY5paDLsBjy5T2</t>
+  </si>
+  <si>
+    <t>rKDXGUNloTitjusxQnB1</t>
+  </si>
+  <si>
+    <t>8Sl58f3lr26xA3ycsvkE</t>
+  </si>
+  <si>
+    <t>3dodP7hzqiNQZg5G1Gk1</t>
+  </si>
+  <si>
+    <t>B9T5rqTLyBC0pdXnxdtm</t>
+  </si>
+  <si>
+    <t>4lMg39aXjINIt4W7OUNE</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -688,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,16 +748,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
